--- a/input/align_educLevel.xlsx
+++ b/input/align_educLevel.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0566A792-5244-480B-8064-D9BA1362E703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA8BD6-E65F-4D6E-8B9B-4AA3F733E8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="5925" windowWidth="27750" windowHeight="11130" activeTab="3" xr2:uid="{8B3B1A3D-54CF-4240-A44B-2FEE87419FDF}"/>
+    <workbookView xWindow="7905" yWindow="1965" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{8B3B1A3D-54CF-4240-A44B-2FEE87419FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="UK_High" sheetId="1" r:id="rId1"/>
     <sheet name="UK_Low" sheetId="2" r:id="rId2"/>
     <sheet name="IT_High" sheetId="3" r:id="rId3"/>
     <sheet name="IT_Low" sheetId="4" r:id="rId4"/>
+    <sheet name="HU_High" sheetId="5" r:id="rId5"/>
+    <sheet name="HU_Low" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>Year / Gender</t>
   </si>
@@ -101,9 +103,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +143,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -247,7 +249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1665,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B140867-5511-4C6F-900E-68586488B939}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2079,4 +2081,1134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD29094B-554C-483C-B7EF-3B7FD5283E46}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2025</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2026</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2027</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2028</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2029</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2030</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2031</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2032</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2033</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2034</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2035</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2036</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2037</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2038</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2039</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2040</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2041</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2042</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2043</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2044</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2045</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2046</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2047</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2048</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2049</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2050</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2051</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2052</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2053</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2054</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2055</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2056</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2057</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2058</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2059</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E392EB-DC83-4527-9301-81BCB8D5ED9A}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+      <c r="B2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
+      <c r="B14">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2025</v>
+      </c>
+      <c r="B16">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2026</v>
+      </c>
+      <c r="B17">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2027</v>
+      </c>
+      <c r="B18">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2028</v>
+      </c>
+      <c r="B19">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2029</v>
+      </c>
+      <c r="B20">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2030</v>
+      </c>
+      <c r="B21">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C21">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2031</v>
+      </c>
+      <c r="B22">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C22">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2032</v>
+      </c>
+      <c r="B23">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C23">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2033</v>
+      </c>
+      <c r="B24">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2034</v>
+      </c>
+      <c r="B25">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2035</v>
+      </c>
+      <c r="B26">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2036</v>
+      </c>
+      <c r="B27">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C27">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2037</v>
+      </c>
+      <c r="B28">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C28">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2038</v>
+      </c>
+      <c r="B29">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2039</v>
+      </c>
+      <c r="B30">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2040</v>
+      </c>
+      <c r="B31">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2041</v>
+      </c>
+      <c r="B32">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2042</v>
+      </c>
+      <c r="B33">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C33">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2043</v>
+      </c>
+      <c r="B34">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C34">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2044</v>
+      </c>
+      <c r="B35">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2045</v>
+      </c>
+      <c r="B36">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2046</v>
+      </c>
+      <c r="B37">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C37">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2047</v>
+      </c>
+      <c r="B38">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C38">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2048</v>
+      </c>
+      <c r="B39">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C39">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2049</v>
+      </c>
+      <c r="B40">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C40">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2050</v>
+      </c>
+      <c r="B41">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C41">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2051</v>
+      </c>
+      <c r="B42">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C42">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2052</v>
+      </c>
+      <c r="B43">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C43">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2053</v>
+      </c>
+      <c r="B44">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C44">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2054</v>
+      </c>
+      <c r="B45">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C45">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2055</v>
+      </c>
+      <c r="B46">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C46">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2056</v>
+      </c>
+      <c r="B47">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C47">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2057</v>
+      </c>
+      <c r="B48">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C48">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2058</v>
+      </c>
+      <c r="B49">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C49">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2059</v>
+      </c>
+      <c r="B50">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C50">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/align_educLevel.xlsx
+++ b/input/align_educLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA8BD6-E65F-4D6E-8B9B-4AA3F733E8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFFB082-9815-4486-8A50-726EE85492DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="1965" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{8B3B1A3D-54CF-4240-A44B-2FEE87419FDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{8B3B1A3D-54CF-4240-A44B-2FEE87419FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="UK_High" sheetId="1" r:id="rId1"/>
@@ -2087,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD29094B-554C-483C-B7EF-3B7FD5283E46}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,10 +2109,10 @@
         <v>2011</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C2" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2120,10 +2120,10 @@
         <v>2012</v>
       </c>
       <c r="B3" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C3" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,10 +2131,10 @@
         <v>2013</v>
       </c>
       <c r="B4" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C4" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,10 +2142,10 @@
         <v>2014</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C5" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,10 +2153,10 @@
         <v>2015</v>
       </c>
       <c r="B6" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,10 +2164,10 @@
         <v>2016</v>
       </c>
       <c r="B7" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C7" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2175,10 +2175,10 @@
         <v>2017</v>
       </c>
       <c r="B8" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C8" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2186,10 +2186,10 @@
         <v>2018</v>
       </c>
       <c r="B9" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C9" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,10 +2197,10 @@
         <v>2019</v>
       </c>
       <c r="B10" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C10" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2208,10 +2208,10 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2219,10 +2219,10 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C12" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,10 +2230,10 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2241,10 +2241,10 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C14" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2252,10 +2252,10 @@
         <v>2024</v>
       </c>
       <c r="B15" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C15" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2263,10 +2263,10 @@
         <v>2025</v>
       </c>
       <c r="B16" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2274,10 +2274,10 @@
         <v>2026</v>
       </c>
       <c r="B17" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C17" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2285,10 +2285,10 @@
         <v>2027</v>
       </c>
       <c r="B18" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C18" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2296,10 +2296,10 @@
         <v>2028</v>
       </c>
       <c r="B19" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C19" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2307,10 +2307,10 @@
         <v>2029</v>
       </c>
       <c r="B20" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C20" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2318,10 +2318,10 @@
         <v>2030</v>
       </c>
       <c r="B21" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C21" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2329,10 +2329,10 @@
         <v>2031</v>
       </c>
       <c r="B22" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C22" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,10 +2340,10 @@
         <v>2032</v>
       </c>
       <c r="B23" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C23" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2351,10 +2351,10 @@
         <v>2033</v>
       </c>
       <c r="B24" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C24" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2362,10 +2362,10 @@
         <v>2034</v>
       </c>
       <c r="B25" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C25" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2373,10 +2373,10 @@
         <v>2035</v>
       </c>
       <c r="B26" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C26" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2384,10 +2384,10 @@
         <v>2036</v>
       </c>
       <c r="B27" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C27" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2395,10 +2395,10 @@
         <v>2037</v>
       </c>
       <c r="B28" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C28" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2406,10 +2406,10 @@
         <v>2038</v>
       </c>
       <c r="B29" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C29" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2417,10 +2417,10 @@
         <v>2039</v>
       </c>
       <c r="B30" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C30" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2428,10 +2428,10 @@
         <v>2040</v>
       </c>
       <c r="B31" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C31" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2439,10 +2439,10 @@
         <v>2041</v>
       </c>
       <c r="B32" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C32" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2450,10 +2450,10 @@
         <v>2042</v>
       </c>
       <c r="B33" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C33" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2461,10 +2461,10 @@
         <v>2043</v>
       </c>
       <c r="B34" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C34" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2472,10 +2472,10 @@
         <v>2044</v>
       </c>
       <c r="B35" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C35" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2483,10 +2483,10 @@
         <v>2045</v>
       </c>
       <c r="B36" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C36" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2494,10 +2494,10 @@
         <v>2046</v>
       </c>
       <c r="B37" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C37" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,10 +2505,10 @@
         <v>2047</v>
       </c>
       <c r="B38" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C38" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2516,10 +2516,10 @@
         <v>2048</v>
       </c>
       <c r="B39" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C39" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2527,10 +2527,10 @@
         <v>2049</v>
       </c>
       <c r="B40" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C40" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2538,10 +2538,10 @@
         <v>2050</v>
       </c>
       <c r="B41" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C41" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2549,10 +2549,10 @@
         <v>2051</v>
       </c>
       <c r="B42" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C42" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2560,10 +2560,10 @@
         <v>2052</v>
       </c>
       <c r="B43" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C43" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2571,10 +2571,10 @@
         <v>2053</v>
       </c>
       <c r="B44" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C44" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2582,10 +2582,10 @@
         <v>2054</v>
       </c>
       <c r="B45" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C45" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2593,10 +2593,10 @@
         <v>2055</v>
       </c>
       <c r="B46" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C46" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2604,10 +2604,10 @@
         <v>2056</v>
       </c>
       <c r="B47" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C47" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2615,10 +2615,10 @@
         <v>2057</v>
       </c>
       <c r="B48" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C48" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2626,10 +2626,10 @@
         <v>2058</v>
       </c>
       <c r="B49" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C49" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2637,10 +2637,10 @@
         <v>2059</v>
       </c>
       <c r="B50" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C50" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2652,9 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E392EB-DC83-4527-9301-81BCB8D5ED9A}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:C50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2674,10 +2672,10 @@
         <v>2011</v>
       </c>
       <c r="B2">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C2">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2685,10 +2683,10 @@
         <v>2012</v>
       </c>
       <c r="B3">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C3">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2696,10 +2694,10 @@
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C4">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,10 +2705,10 @@
         <v>2014</v>
       </c>
       <c r="B5">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C5">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2718,10 +2716,10 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C6">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,10 +2727,10 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C7">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2740,10 +2738,10 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C8">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,10 +2749,10 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C9">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2762,10 +2760,10 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C10">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2773,10 +2771,10 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C11">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,10 +2782,10 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C12">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,10 +2793,10 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C13">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,10 +2804,10 @@
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C14">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,10 +2815,10 @@
         <v>2024</v>
       </c>
       <c r="B15">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C15">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,10 +2826,10 @@
         <v>2025</v>
       </c>
       <c r="B16">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C16">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,10 +2837,10 @@
         <v>2026</v>
       </c>
       <c r="B17">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C17">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,10 +2848,10 @@
         <v>2027</v>
       </c>
       <c r="B18">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C18">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2861,10 +2859,10 @@
         <v>2028</v>
       </c>
       <c r="B19">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C19">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,10 +2870,10 @@
         <v>2029</v>
       </c>
       <c r="B20">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C20">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,10 +2881,10 @@
         <v>2030</v>
       </c>
       <c r="B21">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C21">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,10 +2892,10 @@
         <v>2031</v>
       </c>
       <c r="B22">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C22">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,10 +2903,10 @@
         <v>2032</v>
       </c>
       <c r="B23">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C23">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,10 +2914,10 @@
         <v>2033</v>
       </c>
       <c r="B24">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C24">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,10 +2925,10 @@
         <v>2034</v>
       </c>
       <c r="B25">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C25">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2938,10 +2936,10 @@
         <v>2035</v>
       </c>
       <c r="B26">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C26">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,10 +2947,10 @@
         <v>2036</v>
       </c>
       <c r="B27">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C27">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,10 +2958,10 @@
         <v>2037</v>
       </c>
       <c r="B28">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C28">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,10 +2969,10 @@
         <v>2038</v>
       </c>
       <c r="B29">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C29">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,10 +2980,10 @@
         <v>2039</v>
       </c>
       <c r="B30">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C30">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2993,10 +2991,10 @@
         <v>2040</v>
       </c>
       <c r="B31">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C31">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,10 +3002,10 @@
         <v>2041</v>
       </c>
       <c r="B32">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C32">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,10 +3013,10 @@
         <v>2042</v>
       </c>
       <c r="B33">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C33">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,10 +3024,10 @@
         <v>2043</v>
       </c>
       <c r="B34">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C34">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,10 +3035,10 @@
         <v>2044</v>
       </c>
       <c r="B35">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C35">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,10 +3046,10 @@
         <v>2045</v>
       </c>
       <c r="B36">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C36">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,10 +3057,10 @@
         <v>2046</v>
       </c>
       <c r="B37">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C37">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,10 +3068,10 @@
         <v>2047</v>
       </c>
       <c r="B38">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C38">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,10 +3079,10 @@
         <v>2048</v>
       </c>
       <c r="B39">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C39">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,10 +3090,10 @@
         <v>2049</v>
       </c>
       <c r="B40">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C40">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3101,10 @@
         <v>2050</v>
       </c>
       <c r="B41">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C41">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,10 +3112,10 @@
         <v>2051</v>
       </c>
       <c r="B42">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C42">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,10 +3123,10 @@
         <v>2052</v>
       </c>
       <c r="B43">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C43">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3134,10 @@
         <v>2053</v>
       </c>
       <c r="B44">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C44">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3145,10 @@
         <v>2054</v>
       </c>
       <c r="B45">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C45">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3156,10 @@
         <v>2055</v>
       </c>
       <c r="B46">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C46">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3167,10 @@
         <v>2056</v>
       </c>
       <c r="B47">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C47">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,10 +3178,10 @@
         <v>2057</v>
       </c>
       <c r="B48">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C48">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,10 +3189,10 @@
         <v>2058</v>
       </c>
       <c r="B49">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C49">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,10 +3200,10 @@
         <v>2059</v>
       </c>
       <c r="B50">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C50">
-        <v>3.6799999999999999E-2</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>

--- a/input/align_educLevel.xlsx
+++ b/input/align_educLevel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFFB082-9815-4486-8A50-726EE85492DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F2D5C3-0E13-4567-B019-D79EDF01BD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{8B3B1A3D-54CF-4240-A44B-2FEE87419FDF}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="UK_Low" sheetId="2" r:id="rId2"/>
     <sheet name="IT_High" sheetId="3" r:id="rId3"/>
     <sheet name="IT_Low" sheetId="4" r:id="rId4"/>
-    <sheet name="HU_High" sheetId="5" r:id="rId5"/>
-    <sheet name="HU_Low" sheetId="6" r:id="rId6"/>
+    <sheet name="PL_High" sheetId="5" r:id="rId5"/>
+    <sheet name="PL_Low" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
